--- a/biology/Histoire de la zoologie et de la botanique/Yvon_Pageau/Yvon_Pageau.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Yvon_Pageau/Yvon_Pageau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yvon Pageau est un paléontologue, géologue, écrivain et conférencier canadien. Il est né le 24 décembre 1925 et mort le 5 décembre 2023[1]. Il fut professeur au département des sciences de la Terre de l'Université du Québec à Montréal (UQAM) pendant plus d'une trentaine d'années.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yvon Pageau est un paléontologue, géologue, écrivain et conférencier canadien. Il est né le 24 décembre 1925 et mort le 5 décembre 2023. Il fut professeur au département des sciences de la Terre de l'Université du Québec à Montréal (UQAM) pendant plus d'une trentaine d'années.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yvon Pageau possède une maîtrise en biologie obtenue à New York, des études doctorales complétées à Chicago et enfin un doctorat en paléontologie à la Sorbonne (Paris) sous la direction de Jean Piveteau.
 Il a enseigné à l'UQAM la paléontologie et l'économie des ressources géologiques, l'énergie hydraulique au Québec lui est apparue alors comme l'énergie durable, propre et renouvelable.
@@ -544,9 +558,11 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2010, Yvon Pageau reçoit le prix « Elsa et Lazlo Horvath » soulignant ses réalisations exceptionnelles en minéralogie et en paléontologie et ce sur la scène scientifique québécoise, canadienne ou internationale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, Yvon Pageau reçoit le prix « Elsa et Lazlo Horvath » soulignant ses réalisations exceptionnelles en minéralogie et en paléontologie et ce sur la scène scientifique québécoise, canadienne ou internationale.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>« La Gaspésie et ses fossiles ». Gaspésie, vol. XXIX, nos 3-4 (septembre – décembre 1984), p. 22–27[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« La Gaspésie et ses fossiles ». Gaspésie, vol. XXIX, nos 3-4 (septembre – décembre 1984), p. 22–27
 Le Phénomène humain et l'évolution, éd. Méridien, Montréal 1990, 519 p.
 Hydro Québec, navire amiral ou bateau ivre ? éd. Vermette, Boucherville, 1993, 171 p.
 La main de l'homme, éd. Méridien, Montréal, 28 mars 2003, 208p.</t>
